--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FAFA61-955C-461E-B18B-3B6F581AABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B61DE-5436-46A7-BB5F-B268213A1EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
   <sheets>
     <sheet name="memefi" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>MemeFi-P1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>profile</t>
   </si>
@@ -47,6 +44,15 @@
   </si>
   <si>
     <t>url_wallet</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>upgrade_dame</t>
+  </si>
+  <si>
+    <t>MEME1</t>
   </si>
 </sst>
 </file>
@@ -405,32 +411,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A859F98E-39BA-4DB3-B86F-AEE369474EC9}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -454,24 +470,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\airdrop_telegram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B61DE-5436-46A7-BB5F-B268213A1EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF818A-9F91-4B9B-8F2C-8A4327D7B7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
   <sheets>
     <sheet name="memefi" sheetId="1" r:id="rId1"/>
     <sheet name="ocean" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,13 +46,13 @@
     <t>url_wallet</t>
   </si>
   <si>
-    <t>delay</t>
-  </si>
-  <si>
     <t>upgrade_dame</t>
   </si>
   <si>
-    <t>MEME1</t>
+    <t>token</t>
+  </si>
+  <si>
+    <t>proxy</t>
   </si>
 </sst>
 </file>
@@ -115,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -261,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,44 +411,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A859F98E-39BA-4DB3-B86F-AEE369474EC9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -462,10 +455,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\airdrop_telegram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF818A-9F91-4B9B-8F2C-8A4327D7B7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5279A0-751E-419C-8882-3446732622A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
+    <workbookView xWindow="14415" yWindow="2520" windowWidth="14970" windowHeight="11385" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
   <sheets>
     <sheet name="memefi" sheetId="1" r:id="rId1"/>
-    <sheet name="ocean" sheetId="3" r:id="rId2"/>
+    <sheet name="hamster" sheetId="4" r:id="rId2"/>
+    <sheet name="timefarm" sheetId="5" r:id="rId3"/>
+    <sheet name="yescoin" sheetId="6" r:id="rId4"/>
+    <sheet name="ocean" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>profile</t>
   </si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>proxy</t>
+  </si>
+  <si>
+    <t>query</t>
   </si>
 </sst>
 </file>
@@ -115,9 +121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,7 +161,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -261,7 +267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,14 +420,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -448,6 +454,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5125ACA2-713B-482A-8D23-EA31B0FAC7E2}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E41D1-31E0-4A8F-A43B-96B3703D941B}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B41058-2B00-45CC-81C8-7CD54F25563B}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2098B-8DF0-4667-9573-BD1164226D2D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -455,10 +542,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\airdrop_telegram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5279A0-751E-419C-8882-3446732622A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6C66A7-483B-41FD-A75A-22D1D9E96AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14415" yWindow="2520" windowWidth="14970" windowHeight="11385" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
+    <workbookView xWindow="26463" yWindow="380" windowWidth="19563" windowHeight="10162" activeTab="1" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
   <sheets>
     <sheet name="memefi" sheetId="1" r:id="rId1"/>
-    <sheet name="hamster" sheetId="4" r:id="rId2"/>
-    <sheet name="timefarm" sheetId="5" r:id="rId3"/>
-    <sheet name="yescoin" sheetId="6" r:id="rId4"/>
-    <sheet name="ocean" sheetId="3" r:id="rId5"/>
+    <sheet name="blum" sheetId="7" r:id="rId2"/>
+    <sheet name="hamster" sheetId="4" r:id="rId3"/>
+    <sheet name="timefarm" sheetId="5" r:id="rId4"/>
+    <sheet name="yescoin" sheetId="6" r:id="rId5"/>
+    <sheet name="ocean" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>profile</t>
   </si>
@@ -121,9 +122,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +162,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,15 +420,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A859F98E-39BA-4DB3-B86F-AEE369474EC9}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -454,6 +455,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CFA466-5D9A-4983-9D2E-A1774B180E31}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5125ACA2-713B-482A-8D23-EA31B0FAC7E2}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -461,7 +488,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -479,7 +506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E41D1-31E0-4A8F-A43B-96B3703D941B}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -487,7 +514,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -508,7 +535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B41058-2B00-45CC-81C8-7CD54F25563B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -516,7 +543,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -534,7 +561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2098B-8DF0-4667-9573-BD1164226D2D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -542,10 +569,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -8,29 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\airdrop_telegram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6C66A7-483B-41FD-A75A-22D1D9E96AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC73059-1495-49E2-A1CA-C2213163F0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26463" yWindow="380" windowWidth="19563" windowHeight="10162" activeTab="1" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
   <sheets>
     <sheet name="memefi" sheetId="1" r:id="rId1"/>
     <sheet name="blum" sheetId="7" r:id="rId2"/>
-    <sheet name="hamster" sheetId="4" r:id="rId3"/>
-    <sheet name="timefarm" sheetId="5" r:id="rId4"/>
-    <sheet name="yescoin" sheetId="6" r:id="rId5"/>
-    <sheet name="ocean" sheetId="3" r:id="rId6"/>
+    <sheet name="tapswap" sheetId="8" r:id="rId3"/>
+    <sheet name="hamster" sheetId="4" r:id="rId4"/>
+    <sheet name="timefarm" sheetId="5" r:id="rId5"/>
+    <sheet name="yescoin" sheetId="6" r:id="rId6"/>
+    <sheet name="ocean" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>profile</t>
   </si>
@@ -60,6 +72,15 @@
   </si>
   <si>
     <t>query</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>content_id</t>
+  </si>
+  <si>
+    <t>time_stamp</t>
   </si>
 </sst>
 </file>
@@ -119,6 +140,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>184461</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552797</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7762A2C-4FD9-D173-F8A2-500AAC3E1579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="184461" y="793630"/>
+          <a:ext cx="10443989" cy="3623095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>354559</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>34854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D446B76-788A-4E32-F815-0FEA175609F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5072332"/>
+          <a:ext cx="16020129" cy="6375269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>207936</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>121034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1413AC19-CF3D-C1E8-052D-B2A01C445DAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12137366"/>
+          <a:ext cx="16494608" cy="4831057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A859F98E-39BA-4DB3-B86F-AEE369474EC9}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -448,7 +606,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -458,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CFA466-5D9A-4983-9D2E-A1774B180E31}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -481,6 +638,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D6D066-50FE-401D-A988-CBEC7281C063}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5125ACA2-713B-482A-8D23-EA31B0FAC7E2}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -506,7 +703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E41D1-31E0-4A8F-A43B-96B3703D941B}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -535,7 +732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B41058-2B00-45CC-81C8-7CD54F25563B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -561,7 +758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2098B-8DF0-4667-9573-BD1164226D2D}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\airdrop_telegram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC73059-1495-49E2-A1CA-C2213163F0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7229A363-2960-4874-B641-1EB3E6021B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="2" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
   <sheets>
     <sheet name="memefi" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>profile</t>
   </si>
@@ -81,13 +81,19 @@
   </si>
   <si>
     <t>time_stamp</t>
+  </si>
+  <si>
+    <t>tap_level</t>
+  </si>
+  <si>
+    <t>energy_level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +105,12 @@
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -122,9 +134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,7 +166,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>552797</xdr:colOff>
+      <xdr:colOff>28922</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>69012</xdr:rowOff>
     </xdr:to>
@@ -196,8 +209,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>354559</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>440284</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>34854</xdr:rowOff>
     </xdr:to>
@@ -240,8 +253,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>207936</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>293661</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>121034</xdr:rowOff>
     </xdr:to>
@@ -280,9 +293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -320,7 +333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -426,7 +439,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -568,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,11 +595,11 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -619,7 +632,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -639,19 +652,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D6D066-50FE-401D-A988-CBEC7281C063}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -669,6 +684,12 @@
       </c>
       <c r="F1" t="s">
         <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +706,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -711,7 +732,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -740,7 +761,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -766,10 +787,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7229A363-2960-4874-B641-1EB3E6021B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E8C60-5059-439B-B307-615BE6D3D0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
   <sheets>
     <sheet name="memefi" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>profile</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>url_wallet</t>
-  </si>
-  <si>
-    <t>upgrade_dame</t>
   </si>
   <si>
     <t>token</t>
@@ -293,9 +290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,7 +330,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -439,7 +436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A859F98E-39BA-4DB3-B86F-AEE369474EC9}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,19 +601,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -636,13 +633,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D6D066-50FE-401D-A988-CBEC7281C063}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -668,28 +665,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +707,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -736,13 +733,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -765,13 +762,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76E8C60-5059-439B-B307-615BE6D3D0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9D3F0-F94C-47B4-B023-7523C4BB1933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>profile</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>energy_level</t>
+  </si>
+  <si>
+    <t>dame_level</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9D3F0-F94C-47B4-B023-7523C4BB1933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7A2DB9-7740-49EE-A155-4022417139A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
   <sheets>
     <sheet name="memefi" sheetId="1" r:id="rId1"/>
-    <sheet name="blum" sheetId="7" r:id="rId2"/>
-    <sheet name="tapswap" sheetId="8" r:id="rId3"/>
-    <sheet name="hamster" sheetId="4" r:id="rId4"/>
-    <sheet name="timefarm" sheetId="5" r:id="rId5"/>
-    <sheet name="yescoin" sheetId="6" r:id="rId6"/>
-    <sheet name="ocean" sheetId="3" r:id="rId7"/>
+    <sheet name="pixelvers" sheetId="9" r:id="rId2"/>
+    <sheet name="blum" sheetId="7" r:id="rId3"/>
+    <sheet name="tapswap" sheetId="8" r:id="rId4"/>
+    <sheet name="hamster" sheetId="4" r:id="rId5"/>
+    <sheet name="timefarm" sheetId="5" r:id="rId6"/>
+    <sheet name="yescoin" sheetId="6" r:id="rId7"/>
+    <sheet name="ocean" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>profile</t>
   </si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t>dame_level</t>
+  </si>
+  <si>
+    <t>daily_combo</t>
   </si>
 </sst>
 </file>
@@ -591,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A859F98E-39BA-4DB3-B86F-AEE369474EC9}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -625,6 +629,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893ADC3D-D4C9-4420-8A1A-593431F64A60}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CFA466-5D9A-4983-9D2E-A1774B180E31}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -650,7 +683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D6D066-50FE-401D-A988-CBEC7281C063}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -698,7 +731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5125ACA2-713B-482A-8D23-EA31B0FAC7E2}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -724,7 +757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E41D1-31E0-4A8F-A43B-96B3703D941B}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -753,7 +786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B41058-2B00-45CC-81C8-7CD54F25563B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -779,7 +812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2098B-8DF0-4667-9573-BD1164226D2D}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7A2DB9-7740-49EE-A155-4022417139A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E15F30-0F5A-443B-9F68-5B1A7443B357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
   <sheets>
     <sheet name="memefi" sheetId="1" r:id="rId1"/>
     <sheet name="pixelvers" sheetId="9" r:id="rId2"/>
-    <sheet name="blum" sheetId="7" r:id="rId3"/>
-    <sheet name="tapswap" sheetId="8" r:id="rId4"/>
-    <sheet name="hamster" sheetId="4" r:id="rId5"/>
-    <sheet name="timefarm" sheetId="5" r:id="rId6"/>
-    <sheet name="yescoin" sheetId="6" r:id="rId7"/>
-    <sheet name="ocean" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
+    <sheet name="blum" sheetId="7" r:id="rId4"/>
+    <sheet name="tapswap" sheetId="8" r:id="rId5"/>
+    <sheet name="hamster" sheetId="4" r:id="rId6"/>
+    <sheet name="timefarm" sheetId="5" r:id="rId7"/>
+    <sheet name="yescoin" sheetId="6" r:id="rId8"/>
+    <sheet name="ocean" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>profile</t>
   </si>
@@ -91,6 +92,18 @@
   </si>
   <si>
     <t>daily_combo</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>check_ip</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -632,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893ADC3D-D4C9-4420-8A1A-593431F64A60}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -658,6 +671,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A69416E-E7DB-47DE-8DD9-7B7A2804AD34}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CFA466-5D9A-4983-9D2E-A1774B180E31}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -683,7 +747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D6D066-50FE-401D-A988-CBEC7281C063}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -731,7 +795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5125ACA2-713B-482A-8D23-EA31B0FAC7E2}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -757,7 +821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E41D1-31E0-4A8F-A43B-96B3703D941B}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -786,7 +850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B41058-2B00-45CC-81C8-7CD54F25563B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -812,7 +876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2098B-8DF0-4667-9573-BD1164226D2D}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E15F30-0F5A-443B-9F68-5B1A7443B357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B169AE-6251-4FFD-A974-2B8CCC788DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
   <sheets>
     <sheet name="memefi" sheetId="1" r:id="rId1"/>
     <sheet name="pixelvers" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
-    <sheet name="blum" sheetId="7" r:id="rId4"/>
-    <sheet name="tapswap" sheetId="8" r:id="rId5"/>
-    <sheet name="hamster" sheetId="4" r:id="rId6"/>
-    <sheet name="timefarm" sheetId="5" r:id="rId7"/>
-    <sheet name="yescoin" sheetId="6" r:id="rId8"/>
-    <sheet name="ocean" sheetId="3" r:id="rId9"/>
+    <sheet name="okxrace" sheetId="10" r:id="rId3"/>
+    <sheet name="cexp" sheetId="11" r:id="rId4"/>
+    <sheet name="blum" sheetId="7" r:id="rId5"/>
+    <sheet name="tapswap" sheetId="8" r:id="rId6"/>
+    <sheet name="hamster" sheetId="4" r:id="rId7"/>
+    <sheet name="timefarm" sheetId="5" r:id="rId8"/>
+    <sheet name="yescoin" sheetId="6" r:id="rId9"/>
+    <sheet name="ocean" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>profile</t>
   </si>
@@ -641,6 +642,48 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2098B-8DF0-4667-9573-BD1164226D2D}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893ADC3D-D4C9-4420-8A1A-593431F64A60}">
   <dimension ref="A1:D1"/>
@@ -675,7 +718,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +765,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F437D7F8-D227-48A0-9DA0-0680C85875A7}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CFA466-5D9A-4983-9D2E-A1774B180E31}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -747,7 +816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D6D066-50FE-401D-A988-CBEC7281C063}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -795,7 +864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5125ACA2-713B-482A-8D23-EA31B0FAC7E2}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -821,7 +890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E41D1-31E0-4A8F-A43B-96B3703D941B}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -850,7 +919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B41058-2B00-45CC-81C8-7CD54F25563B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -874,46 +943,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2098B-8DF0-4667-9573-BD1164226D2D}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B169AE-6251-4FFD-A974-2B8CCC788DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA214AD9-3EC6-40FE-A727-C26FFC60FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>profile</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>query_id</t>
+  </si>
+  <si>
+    <t>query_id=</t>
   </si>
 </sst>
 </file>
@@ -715,15 +721,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A69416E-E7DB-47DE-8DD9-7B7A2804AD34}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -736,8 +742,11 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1234</v>
       </c>
@@ -747,8 +756,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1234</v>
       </c>
@@ -757,6 +769,9 @@
       </c>
       <c r="D3">
         <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA214AD9-3EC6-40FE-A727-C26FFC60FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516CFB25-B932-4C49-92A8-3BF7AB10AD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>profile</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>query_id=</t>
+  </si>
+  <si>
+    <t>ref_id</t>
   </si>
 </sst>
 </file>
@@ -721,15 +724,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A69416E-E7DB-47DE-8DD9-7B7A2804AD34}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -745,8 +748,11 @@
       <c r="E1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1234</v>
       </c>
@@ -759,8 +765,11 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>26698393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1234</v>
       </c>
@@ -772,6 +781,9 @@
       </c>
       <c r="E3" t="s">
         <v>21</v>
+      </c>
+      <c r="F3">
+        <v>26698393</v>
       </c>
     </row>
   </sheetData>

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516CFB25-B932-4C49-92A8-3BF7AB10AD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C955D9-37EA-4A5E-880D-1CF01E457D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>profile</t>
   </si>
@@ -95,16 +95,7 @@
     <t>daily_combo</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>check_ip</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
   <si>
     <t>query_id</t>
@@ -724,15 +715,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A69416E-E7DB-47DE-8DD9-7B7A2804AD34}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -743,46 +734,28 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
         <v>26698393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>1234</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
         <v>26698393</v>
       </c>
     </row>

--- a/account-template.xlsx
+++ b/account-template.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C955D9-37EA-4A5E-880D-1CF01E457D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1D90C7-7C5C-4ECB-8A26-C4F699E03C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
+    <workbookView xWindow="5715" yWindow="4215" windowWidth="14970" windowHeight="11385" activeTab="3" xr2:uid="{52465C05-244E-478B-ACE5-618B24F7C227}"/>
   </bookViews>
   <sheets>
     <sheet name="memefi" sheetId="1" r:id="rId1"/>
     <sheet name="pixelvers" sheetId="9" r:id="rId2"/>
     <sheet name="okxrace" sheetId="10" r:id="rId3"/>
-    <sheet name="cexp" sheetId="11" r:id="rId4"/>
-    <sheet name="blum" sheetId="7" r:id="rId5"/>
-    <sheet name="tapswap" sheetId="8" r:id="rId6"/>
-    <sheet name="hamster" sheetId="4" r:id="rId7"/>
-    <sheet name="timefarm" sheetId="5" r:id="rId8"/>
-    <sheet name="yescoin" sheetId="6" r:id="rId9"/>
-    <sheet name="ocean" sheetId="3" r:id="rId10"/>
+    <sheet name="dog" sheetId="12" r:id="rId4"/>
+    <sheet name="cexp" sheetId="11" r:id="rId5"/>
+    <sheet name="blum" sheetId="7" r:id="rId6"/>
+    <sheet name="tapswap" sheetId="8" r:id="rId7"/>
+    <sheet name="hamster" sheetId="4" r:id="rId8"/>
+    <sheet name="timefarm" sheetId="5" r:id="rId9"/>
+    <sheet name="yescoin" sheetId="6" r:id="rId10"/>
+    <sheet name="ocean" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>profile</t>
   </si>
@@ -643,6 +644,32 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B41058-2B00-45CC-81C8-7CD54F25563B}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2098B-8DF0-4667-9573-BD1164226D2D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -717,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A69416E-E7DB-47DE-8DD9-7B7A2804AD34}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,6 +792,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C57B3-638F-4EC4-BBA4-B005356EAFAD}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F437D7F8-D227-48A0-9DA0-0680C85875A7}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -790,7 +840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CFA466-5D9A-4983-9D2E-A1774B180E31}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -816,7 +866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D6D066-50FE-401D-A988-CBEC7281C063}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -864,7 +914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5125ACA2-713B-482A-8D23-EA31B0FAC7E2}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -890,7 +940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8E41D1-31E0-4A8F-A43B-96B3703D941B}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -917,30 +967,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B41058-2B00-45CC-81C8-7CD54F25563B}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>